--- a/state_results/Rivers/ManawatuatHopelands_65cebb97ae.xlsx
+++ b/state_results/Rivers/ManawatuatHopelands_65cebb97ae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U426"/>
+  <dimension ref="A1:U447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -813,7 +813,7 @@
         <v>0.02452</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0281602114621058</v>
+        <v>0.028164165110346</v>
       </c>
       <c r="H5" t="n">
         <v>0.126937952464304</v>
@@ -894,7 +894,7 @@
         <v>0.02452</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0281602114621058</v>
+        <v>0.028164165110346</v>
       </c>
       <c r="H6" t="n">
         <v>0.126937952464304</v>
@@ -975,7 +975,7 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.717738122093817</v>
+        <v>0.717773074502952</v>
       </c>
       <c r="H7" t="n">
         <v>1.63</v>
@@ -1056,7 +1056,7 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.717738122093817</v>
+        <v>0.717773074502952</v>
       </c>
       <c r="H8" t="n">
         <v>1.63</v>
@@ -1287,7 +1287,7 @@
         <v>0.045</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0882790656053957</v>
+        <v>0.08828111023233221</v>
       </c>
       <c r="H11" t="n">
         <v>0.61</v>
@@ -1364,7 +1364,7 @@
         <v>0.045</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0882790656053957</v>
+        <v>0.08828111023233221</v>
       </c>
       <c r="H12" t="n">
         <v>0.61</v>
@@ -1688,7 +1688,7 @@
         <v>0.02452</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0277460841964088</v>
+        <v>0.0277503474792291</v>
       </c>
       <c r="H16" t="n">
         <v>0.2</v>
@@ -1769,7 +1769,7 @@
         <v>0.02452</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0277460841964088</v>
+        <v>0.0277503474792291</v>
       </c>
       <c r="H17" t="n">
         <v>0.2</v>
@@ -1850,7 +1850,7 @@
         <v>0.7</v>
       </c>
       <c r="G18" t="n">
-        <v>0.74298018469069</v>
+        <v>0.74301397201952</v>
       </c>
       <c r="H18" t="n">
         <v>1.7</v>
@@ -1931,7 +1931,7 @@
         <v>0.7</v>
       </c>
       <c r="G19" t="n">
-        <v>0.74298018469069</v>
+        <v>0.74301397201952</v>
       </c>
       <c r="H19" t="n">
         <v>1.7</v>
@@ -2162,7 +2162,7 @@
         <v>0.04</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0807102837204671</v>
+        <v>0.08071225903801579</v>
       </c>
       <c r="H22" t="n">
         <v>0.65</v>
@@ -2239,7 +2239,7 @@
         <v>0.04</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0807102837204671</v>
+        <v>0.08071225903801579</v>
       </c>
       <c r="H23" t="n">
         <v>0.65</v>
@@ -2563,7 +2563,7 @@
         <v>0.0264</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0294603748049394</v>
+        <v>0.0294669243716989</v>
       </c>
       <c r="H27" t="n">
         <v>0.2</v>
@@ -2644,7 +2644,7 @@
         <v>0.0264</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0294603748049394</v>
+        <v>0.0294669243716989</v>
       </c>
       <c r="H28" t="n">
         <v>0.2</v>
@@ -2725,7 +2725,7 @@
         <v>0.71</v>
       </c>
       <c r="G29" t="n">
-        <v>0.722646851357357</v>
+        <v>0.722680638686187</v>
       </c>
       <c r="H29" t="n">
         <v>1.9</v>
@@ -2806,7 +2806,7 @@
         <v>0.71</v>
       </c>
       <c r="G30" t="n">
-        <v>0.722646851357357</v>
+        <v>0.722680638686187</v>
       </c>
       <c r="H30" t="n">
         <v>1.9</v>
@@ -3037,7 +3037,7 @@
         <v>0.04</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0884448242448416</v>
+        <v>0.0884473038987858</v>
       </c>
       <c r="H33" t="n">
         <v>0.65</v>
@@ -3114,7 +3114,7 @@
         <v>0.04</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0884448242448416</v>
+        <v>0.0884473038987858</v>
       </c>
       <c r="H34" t="n">
         <v>0.65</v>
@@ -3438,7 +3438,7 @@
         <v>0.02647</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0308541578703954</v>
+        <v>0.0308579935166163</v>
       </c>
       <c r="H38" t="n">
         <v>0.2</v>
@@ -3519,7 +3519,7 @@
         <v>0.02647</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0308541578703954</v>
+        <v>0.0308579935166163</v>
       </c>
       <c r="H39" t="n">
         <v>0.2</v>
@@ -3600,7 +3600,7 @@
         <v>0.72</v>
       </c>
       <c r="G40" t="n">
-        <v>0.72248018469069</v>
+        <v>0.7225139720195199</v>
       </c>
       <c r="H40" t="n">
         <v>1.9</v>
@@ -3681,7 +3681,7 @@
         <v>0.72</v>
       </c>
       <c r="G41" t="n">
-        <v>0.72248018469069</v>
+        <v>0.7225139720195199</v>
       </c>
       <c r="H41" t="n">
         <v>1.9</v>
@@ -4313,7 +4313,7 @@
         <v>0.02647</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0311691315783535</v>
+        <v>0.0311822779429971</v>
       </c>
       <c r="H49" t="n">
         <v>0.2</v>
@@ -4394,7 +4394,7 @@
         <v>0.02647</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0311691315783535</v>
+        <v>0.0311822779429971</v>
       </c>
       <c r="H50" t="n">
         <v>0.2</v>
@@ -4475,7 +4475,7 @@
         <v>0.735</v>
       </c>
       <c r="G51" t="n">
-        <v>0.740813518024023</v>
+        <v>0.740847305352853</v>
       </c>
       <c r="H51" t="n">
         <v>1.9</v>
@@ -4556,7 +4556,7 @@
         <v>0.735</v>
       </c>
       <c r="G52" t="n">
-        <v>0.740813518024023</v>
+        <v>0.740847305352853</v>
       </c>
       <c r="H52" t="n">
         <v>1.9</v>
@@ -5034,7 +5034,7 @@
         <v>0.02635</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0316376464496119</v>
+        <v>0.0316507928142555</v>
       </c>
       <c r="H58" t="n">
         <v>0.2</v>
@@ -5115,7 +5115,7 @@
         <v>0.02635</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0316376464496119</v>
+        <v>0.0316507928142555</v>
       </c>
       <c r="H59" t="n">
         <v>0.2</v>
@@ -5755,7 +5755,7 @@
         <v>0.0239</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0278558304910106</v>
+        <v>0.0278713875625886</v>
       </c>
       <c r="H67" t="n">
         <v>0.142357236912528</v>
@@ -5836,7 +5836,7 @@
         <v>0.0239</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0278558304910106</v>
+        <v>0.0278713875625886</v>
       </c>
       <c r="H68" t="n">
         <v>0.142357236912528</v>
@@ -6476,7 +6476,7 @@
         <v>0.02257</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0274601783862471</v>
+        <v>0.0274754690693156</v>
       </c>
       <c r="H76" t="n">
         <v>0.142357236912528</v>
@@ -6557,7 +6557,7 @@
         <v>0.02257</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0274601783862471</v>
+        <v>0.0274754690693156</v>
       </c>
       <c r="H77" t="n">
         <v>0.142357236912528</v>
@@ -8643,7 +8643,7 @@
         <v>0.01943</v>
       </c>
       <c r="G103" t="n">
-        <v>0.023383357061596</v>
+        <v>0.023384812699809</v>
       </c>
       <c r="H103" t="n">
         <v>0.0748457149483133</v>
@@ -8724,7 +8724,7 @@
         <v>0.01943</v>
       </c>
       <c r="G104" t="n">
-        <v>0.023383357061596</v>
+        <v>0.023384812699809</v>
       </c>
       <c r="H104" t="n">
         <v>0.0748457149483133</v>
@@ -9781,7 +9781,7 @@
         <v>0.01844</v>
       </c>
       <c r="G117" t="n">
-        <v>0.022950534485379</v>
+        <v>0.0229585499021178</v>
       </c>
       <c r="H117" t="n">
         <v>0.0748457149483133</v>
@@ -9862,7 +9862,7 @@
         <v>0.01844</v>
       </c>
       <c r="G118" t="n">
-        <v>0.022950534485379</v>
+        <v>0.0229585499021178</v>
       </c>
       <c r="H118" t="n">
         <v>0.0748457149483133</v>
@@ -10259,7 +10259,7 @@
         <v>0.93</v>
       </c>
       <c r="G123" t="n">
-        <v>1.41253122285104</v>
+        <v>1.40315905582845</v>
       </c>
       <c r="H123" t="n">
         <v>7.9</v>
@@ -10340,7 +10340,7 @@
         <v>0.026</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0286893716253597</v>
+        <v>0.0286902433782975</v>
       </c>
       <c r="H124" t="n">
         <v>0.11</v>
@@ -10421,7 +10421,7 @@
         <v>0.026</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0286893716253597</v>
+        <v>0.0286902433782975</v>
       </c>
       <c r="H125" t="n">
         <v>0.11</v>
@@ -10919,7 +10919,7 @@
         <v>0.01792</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0198377968340644</v>
+        <v>0.0198484146403927</v>
       </c>
       <c r="H131" t="n">
         <v>0.0748457149483133</v>
@@ -11000,7 +11000,7 @@
         <v>0.01792</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0198377968340644</v>
+        <v>0.0198484146403927</v>
       </c>
       <c r="H132" t="n">
         <v>0.0748457149483133</v>
@@ -11397,13 +11397,13 @@
         <v>1.29</v>
       </c>
       <c r="G137" t="n">
-        <v>1.57498201725755</v>
+        <v>1.56441340338102</v>
       </c>
       <c r="H137" t="n">
         <v>7.9</v>
       </c>
       <c r="I137" t="n">
-        <v>6.68862</v>
+        <v>6.61411</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -11478,7 +11478,7 @@
         <v>0.025</v>
       </c>
       <c r="G138" t="n">
-        <v>0.025022704958693</v>
+        <v>0.0250235767116308</v>
       </c>
       <c r="H138" t="n">
         <v>0.061</v>
@@ -11559,7 +11559,7 @@
         <v>0.025</v>
       </c>
       <c r="G139" t="n">
-        <v>0.025022704958693</v>
+        <v>0.0250235767116308</v>
       </c>
       <c r="H139" t="n">
         <v>0.061</v>
@@ -12057,7 +12057,7 @@
         <v>0.01565</v>
       </c>
       <c r="G145" t="n">
-        <v>0.017522054820139</v>
+        <v>0.0175389299653681</v>
       </c>
       <c r="H145" t="n">
         <v>0.0748457149483133</v>
@@ -12138,7 +12138,7 @@
         <v>0.01565</v>
       </c>
       <c r="G146" t="n">
-        <v>0.017522054820139</v>
+        <v>0.0175389299653681</v>
       </c>
       <c r="H146" t="n">
         <v>0.0748457149483133</v>
@@ -12535,13 +12535,13 @@
         <v>1.52</v>
       </c>
       <c r="G151" t="n">
-        <v>2.06491501640617</v>
+        <v>2.10965548303078</v>
       </c>
       <c r="H151" t="n">
         <v>7.9</v>
       </c>
       <c r="I151" t="n">
-        <v>6.64242</v>
+        <v>6.59274</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -12549,10 +12549,10 @@
         <v>2.25</v>
       </c>
       <c r="M151" t="n">
-        <v>4.21901</v>
+        <v>4.374</v>
       </c>
       <c r="N151" t="n">
-        <v>6.066</v>
+        <v>6.48194</v>
       </c>
       <c r="O151" t="n">
         <v>1851498</v>
@@ -12616,7 +12616,7 @@
         <v>0.025</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0252809341835431</v>
+        <v>0.0252817909062579</v>
       </c>
       <c r="H152" t="n">
         <v>0.061</v>
@@ -12697,7 +12697,7 @@
         <v>0.025</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0252809341835431</v>
+        <v>0.0252817909062579</v>
       </c>
       <c r="H153" t="n">
         <v>0.061</v>
@@ -13195,7 +13195,7 @@
         <v>0.01679</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0193010603233876</v>
+        <v>0.0193128056550169</v>
       </c>
       <c r="H159" t="n">
         <v>0.0946284412572513</v>
@@ -13276,7 +13276,7 @@
         <v>0.01679</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0193010603233876</v>
+        <v>0.0193128056550169</v>
       </c>
       <c r="H160" t="n">
         <v>0.0946284412572513</v>
@@ -13827,7 +13827,7 @@
         <v>1.675</v>
       </c>
       <c r="G167" t="n">
-        <v>2.17451841574992</v>
+        <v>2.21746926370955</v>
       </c>
       <c r="H167" t="n">
         <v>7.9</v>
@@ -13844,7 +13844,7 @@
         <v>4.5</v>
       </c>
       <c r="N167" t="n">
-        <v>6.05</v>
+        <v>6.45302</v>
       </c>
       <c r="O167" t="n">
         <v>1851498</v>
@@ -13908,7 +13908,7 @@
         <v>0.025</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0249705893559569</v>
+        <v>0.0249714460786717</v>
       </c>
       <c r="H168" t="n">
         <v>0.061</v>
@@ -13989,7 +13989,7 @@
         <v>0.025</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0249705893559569</v>
+        <v>0.0249714460786717</v>
       </c>
       <c r="H169" t="n">
         <v>0.061</v>
@@ -14487,7 +14487,7 @@
         <v>0.01458</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0199664710357822</v>
+        <v>0.0199665488614116</v>
       </c>
       <c r="H175" t="n">
         <v>0.15</v>
@@ -14498,7 +14498,7 @@
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
-        <v>0.01378</v>
+        <v>0.01401</v>
       </c>
       <c r="M175" t="n">
         <v>0.03428</v>
@@ -14568,7 +14568,7 @@
         <v>0.01458</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0199664710357822</v>
+        <v>0.0199665488614116</v>
       </c>
       <c r="H176" t="n">
         <v>0.15</v>
@@ -14579,7 +14579,7 @@
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
-        <v>0.01378</v>
+        <v>0.01401</v>
       </c>
       <c r="M176" t="n">
         <v>0.03428</v>
@@ -15119,13 +15119,13 @@
         <v>2</v>
       </c>
       <c r="G183" t="n">
-        <v>2.32450235778468</v>
+        <v>2.36823413227493</v>
       </c>
       <c r="H183" t="n">
         <v>7.9</v>
       </c>
       <c r="I183" t="n">
-        <v>6.59621</v>
+        <v>6.57137</v>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
@@ -15133,10 +15133,10 @@
         <v>2.4</v>
       </c>
       <c r="M183" t="n">
-        <v>4.5245</v>
+        <v>4.602</v>
       </c>
       <c r="N183" t="n">
-        <v>6.058</v>
+        <v>6.46748</v>
       </c>
       <c r="O183" t="n">
         <v>1851498</v>
@@ -15200,7 +15200,7 @@
         <v>0.023</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0229174418007983</v>
+        <v>0.0229183135537361</v>
       </c>
       <c r="H184" t="n">
         <v>0.05</v>
@@ -15281,7 +15281,7 @@
         <v>0.023</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0229174418007983</v>
+        <v>0.0229183135537361</v>
       </c>
       <c r="H185" t="n">
         <v>0.05</v>
@@ -15779,7 +15779,7 @@
         <v>0.0157</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0219763744438444</v>
+        <v>0.0219725589327276</v>
       </c>
       <c r="H191" t="n">
         <v>0.15</v>
@@ -15790,7 +15790,7 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
-        <v>0.02095</v>
+        <v>0.02125</v>
       </c>
       <c r="M191" t="n">
         <v>0.03929</v>
@@ -15860,7 +15860,7 @@
         <v>0.0157</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0219763744438444</v>
+        <v>0.0219725589327276</v>
       </c>
       <c r="H192" t="n">
         <v>0.15</v>
@@ -15871,7 +15871,7 @@
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
-        <v>0.02095</v>
+        <v>0.02125</v>
       </c>
       <c r="M192" t="n">
         <v>0.03929</v>
@@ -16565,13 +16565,13 @@
         <v>1.25</v>
       </c>
       <c r="G201" t="n">
-        <v>1.84486921440689</v>
+        <v>1.89766085045127</v>
       </c>
       <c r="H201" t="n">
+        <v>6.54339941702058</v>
+      </c>
+      <c r="I201" t="n">
         <v>6.1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>5.61762</v>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
         <v>2.8</v>
       </c>
       <c r="N201" t="n">
-        <v>4.87207</v>
+        <v>5.55</v>
       </c>
       <c r="O201" t="n">
         <v>1851498</v>
@@ -17222,10 +17222,10 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0.02095</v>
+        <v>0.02125</v>
       </c>
       <c r="G209" t="n">
-        <v>0.0274459871420316</v>
+        <v>0.0274382543397776</v>
       </c>
       <c r="H209" t="n">
         <v>0.15</v>
@@ -17236,7 +17236,7 @@
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
-        <v>0.02272</v>
+        <v>0.02213</v>
       </c>
       <c r="M209" t="n">
         <v>0.0469</v>
@@ -17303,10 +17303,10 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0.02095</v>
+        <v>0.02125</v>
       </c>
       <c r="G210" t="n">
-        <v>0.0274459871420316</v>
+        <v>0.0274382543397776</v>
       </c>
       <c r="H210" t="n">
         <v>0.15</v>
@@ -17317,7 +17317,7 @@
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
-        <v>0.02272</v>
+        <v>0.02213</v>
       </c>
       <c r="M210" t="n">
         <v>0.0469</v>
@@ -18092,13 +18092,13 @@
         <v>1.25</v>
       </c>
       <c r="G220" t="n">
-        <v>1.79416894143472</v>
+        <v>1.84130433076007</v>
       </c>
       <c r="H220" t="n">
-        <v>6.1</v>
+        <v>6.54339941702058</v>
       </c>
       <c r="I220" t="n">
-        <v>5.46233</v>
+        <v>6.07</v>
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
@@ -18109,7 +18109,7 @@
         <v>2.847</v>
       </c>
       <c r="N220" t="n">
-        <v>4.65326</v>
+        <v>5.118</v>
       </c>
       <c r="O220" t="n">
         <v>1851498</v>
@@ -18749,10 +18749,10 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>0.02289</v>
+        <v>0.02259</v>
       </c>
       <c r="G228" t="n">
-        <v>0.0287111308308616</v>
+        <v>0.0286967443641847</v>
       </c>
       <c r="H228" t="n">
         <v>0.15</v>
@@ -18830,10 +18830,10 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>0.02289</v>
+        <v>0.02259</v>
       </c>
       <c r="G229" t="n">
-        <v>0.0287111308308616</v>
+        <v>0.0286967443641847</v>
       </c>
       <c r="H229" t="n">
         <v>0.15</v>
@@ -19696,7 +19696,7 @@
         <v>1.2</v>
       </c>
       <c r="G240" t="n">
-        <v>1.43821263170824</v>
+        <v>1.43812744174535</v>
       </c>
       <c r="H240" t="n">
         <v>4.5</v>
@@ -20356,7 +20356,7 @@
         <v>0.01874</v>
       </c>
       <c r="G248" t="n">
-        <v>0.0248782189265732</v>
+        <v>0.0248680894211568</v>
       </c>
       <c r="H248" t="n">
         <v>0.15</v>
@@ -20437,7 +20437,7 @@
         <v>0.01874</v>
       </c>
       <c r="G249" t="n">
-        <v>0.0248782189265732</v>
+        <v>0.0248680894211568</v>
       </c>
       <c r="H249" t="n">
         <v>0.15</v>
@@ -21377,7 +21377,7 @@
         <v>1.2</v>
       </c>
       <c r="G261" t="n">
-        <v>1.34930354079915</v>
+        <v>1.34921835083626</v>
       </c>
       <c r="H261" t="n">
         <v>3.5</v>
@@ -22037,7 +22037,7 @@
         <v>0.015</v>
       </c>
       <c r="G269" t="n">
-        <v>0.0198031686961761</v>
+        <v>0.0198174922132522</v>
       </c>
       <c r="H269" t="n">
         <v>0.08500000000000001</v>
@@ -22118,7 +22118,7 @@
         <v>0.015</v>
       </c>
       <c r="G270" t="n">
-        <v>0.0198031686961761</v>
+        <v>0.0198174922132522</v>
       </c>
       <c r="H270" t="n">
         <v>0.08500000000000001</v>
@@ -22199,7 +22199,7 @@
         <v>0.6177</v>
       </c>
       <c r="G271" t="n">
-        <v>0.576172483116026</v>
+        <v>0.576218605228517</v>
       </c>
       <c r="H271" t="n">
         <v>1.66</v>
@@ -22280,7 +22280,7 @@
         <v>0.6177</v>
       </c>
       <c r="G272" t="n">
-        <v>0.576172483116026</v>
+        <v>0.576218605228517</v>
       </c>
       <c r="H272" t="n">
         <v>1.66</v>
@@ -22434,7 +22434,7 @@
         <v>0.637</v>
       </c>
       <c r="G274" t="n">
-        <v>0.597942964587158</v>
+        <v>0.597994719701019</v>
       </c>
       <c r="H274" t="n">
         <v>1.704</v>
@@ -22511,7 +22511,7 @@
         <v>0.637</v>
       </c>
       <c r="G275" t="n">
-        <v>0.597942964587158</v>
+        <v>0.597994719701019</v>
       </c>
       <c r="H275" t="n">
         <v>1.704</v>
@@ -23715,10 +23715,10 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>0.01366</v>
+        <v>0.01374</v>
       </c>
       <c r="G290" t="n">
-        <v>0.017867566654067</v>
+        <v>0.0179187673545233</v>
       </c>
       <c r="H290" t="n">
         <v>0.08500000000000001</v>
@@ -23729,10 +23729,10 @@
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
-        <v>0.0111</v>
+        <v>0.01118</v>
       </c>
       <c r="M290" t="n">
-        <v>0.03104</v>
+        <v>0.03141</v>
       </c>
       <c r="N290" t="n">
         <v>0.04664</v>
@@ -23796,10 +23796,10 @@
         </is>
       </c>
       <c r="F291" t="n">
-        <v>0.01366</v>
+        <v>0.01374</v>
       </c>
       <c r="G291" t="n">
-        <v>0.017867566654067</v>
+        <v>0.0179187673545233</v>
       </c>
       <c r="H291" t="n">
         <v>0.08500000000000001</v>
@@ -23810,10 +23810,10 @@
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
-        <v>0.0111</v>
+        <v>0.01118</v>
       </c>
       <c r="M291" t="n">
-        <v>0.03104</v>
+        <v>0.03141</v>
       </c>
       <c r="N291" t="n">
         <v>0.04664</v>
@@ -23880,7 +23880,7 @@
         <v>0.6203</v>
       </c>
       <c r="G292" t="n">
-        <v>0.565006196095256</v>
+        <v>0.565106776253904</v>
       </c>
       <c r="H292" t="n">
         <v>1.54</v>
@@ -23891,7 +23891,7 @@
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
-        <v>0.0376</v>
+        <v>0.03925</v>
       </c>
       <c r="M292" t="n">
         <v>0.99254</v>
@@ -23961,7 +23961,7 @@
         <v>0.6203</v>
       </c>
       <c r="G293" t="n">
-        <v>0.565006196095256</v>
+        <v>0.565106776253904</v>
       </c>
       <c r="H293" t="n">
         <v>1.54</v>
@@ -23972,7 +23972,7 @@
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
-        <v>0.0376</v>
+        <v>0.03925</v>
       </c>
       <c r="M293" t="n">
         <v>0.99254</v>
@@ -24115,7 +24115,7 @@
         <v>0.6415</v>
       </c>
       <c r="G295" t="n">
-        <v>0.583054816108563</v>
+        <v>0.5831358662066251</v>
       </c>
       <c r="H295" t="n">
         <v>1.586</v>
@@ -24126,7 +24126,7 @@
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
-        <v>0.0417</v>
+        <v>0.04343</v>
       </c>
       <c r="M295" t="n">
         <v>1.0167</v>
@@ -24192,7 +24192,7 @@
         <v>0.6415</v>
       </c>
       <c r="G296" t="n">
-        <v>0.583054816108563</v>
+        <v>0.5831358662066251</v>
       </c>
       <c r="H296" t="n">
         <v>1.586</v>
@@ -24203,7 +24203,7 @@
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
-        <v>0.0417</v>
+        <v>0.04343</v>
       </c>
       <c r="M296" t="n">
         <v>1.0167</v>
@@ -25396,10 +25396,10 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>0.009769999999999999</v>
+        <v>0.00983</v>
       </c>
       <c r="G311" t="n">
-        <v>0.0142214821056726</v>
+        <v>0.0142872330435388</v>
       </c>
       <c r="H311" t="n">
         <v>0.05</v>
@@ -25410,13 +25410,13 @@
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
-        <v>0.01086</v>
+        <v>0.011</v>
       </c>
       <c r="M311" t="n">
-        <v>0.02828</v>
+        <v>0.02858</v>
       </c>
       <c r="N311" t="n">
-        <v>0.03262</v>
+        <v>0.033</v>
       </c>
       <c r="O311" t="n">
         <v>1851498</v>
@@ -25477,10 +25477,10 @@
         </is>
       </c>
       <c r="F312" t="n">
-        <v>0.009769999999999999</v>
+        <v>0.00983</v>
       </c>
       <c r="G312" t="n">
-        <v>0.0142214821056726</v>
+        <v>0.0142872330435388</v>
       </c>
       <c r="H312" t="n">
         <v>0.05</v>
@@ -25491,13 +25491,13 @@
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
-        <v>0.01086</v>
+        <v>0.011</v>
       </c>
       <c r="M312" t="n">
-        <v>0.02828</v>
+        <v>0.02858</v>
       </c>
       <c r="N312" t="n">
-        <v>0.03262</v>
+        <v>0.033</v>
       </c>
       <c r="O312" t="n">
         <v>1851498</v>
@@ -25561,7 +25561,7 @@
         <v>0.6203</v>
       </c>
       <c r="G313" t="n">
-        <v>0.587196196095256</v>
+        <v>0.587296776253904</v>
       </c>
       <c r="H313" t="n">
         <v>1.59</v>
@@ -25572,7 +25572,7 @@
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
-        <v>0.0376</v>
+        <v>0.03925</v>
       </c>
       <c r="M313" t="n">
         <v>1.082</v>
@@ -25642,7 +25642,7 @@
         <v>0.6203</v>
       </c>
       <c r="G314" t="n">
-        <v>0.587196196095256</v>
+        <v>0.587296776253904</v>
       </c>
       <c r="H314" t="n">
         <v>1.59</v>
@@ -25653,7 +25653,7 @@
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
-        <v>0.0376</v>
+        <v>0.03925</v>
       </c>
       <c r="M314" t="n">
         <v>1.082</v>
@@ -25796,7 +25796,7 @@
         <v>0.6415</v>
       </c>
       <c r="G316" t="n">
-        <v>0.604554816108563</v>
+        <v>0.604635866206625</v>
       </c>
       <c r="H316" t="n">
         <v>1.64</v>
@@ -25807,7 +25807,7 @@
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
-        <v>0.0417</v>
+        <v>0.04343</v>
       </c>
       <c r="M316" t="n">
         <v>1.094</v>
@@ -25873,7 +25873,7 @@
         <v>0.6415</v>
       </c>
       <c r="G317" t="n">
-        <v>0.604554816108563</v>
+        <v>0.604635866206625</v>
       </c>
       <c r="H317" t="n">
         <v>1.64</v>
@@ -25884,7 +25884,7 @@
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
-        <v>0.0417</v>
+        <v>0.04343</v>
       </c>
       <c r="M317" t="n">
         <v>1.094</v>
@@ -27077,27 +27077,27 @@
         </is>
       </c>
       <c r="F332" t="n">
-        <v>0.009769999999999999</v>
+        <v>0.00983</v>
       </c>
       <c r="G332" t="n">
-        <v>0.0134138189283416</v>
+        <v>0.0134916681044525</v>
       </c>
       <c r="H332" t="n">
         <v>0.05</v>
       </c>
       <c r="I332" t="n">
-        <v>0.03268</v>
+        <v>0.03306</v>
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
-        <v>0.01086</v>
+        <v>0.011</v>
       </c>
       <c r="M332" t="n">
-        <v>0.02616</v>
+        <v>0.02627</v>
       </c>
       <c r="N332" t="n">
-        <v>0.03162</v>
+        <v>0.03199</v>
       </c>
       <c r="O332" t="n">
         <v>1851498</v>
@@ -27158,27 +27158,27 @@
         </is>
       </c>
       <c r="F333" t="n">
-        <v>0.009769999999999999</v>
+        <v>0.00983</v>
       </c>
       <c r="G333" t="n">
-        <v>0.0134138189283416</v>
+        <v>0.0134916681044525</v>
       </c>
       <c r="H333" t="n">
         <v>0.05</v>
       </c>
       <c r="I333" t="n">
-        <v>0.03268</v>
+        <v>0.03306</v>
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
-        <v>0.01086</v>
+        <v>0.011</v>
       </c>
       <c r="M333" t="n">
-        <v>0.02616</v>
+        <v>0.02627</v>
       </c>
       <c r="N333" t="n">
-        <v>0.03162</v>
+        <v>0.03199</v>
       </c>
       <c r="O333" t="n">
         <v>1851498</v>
@@ -27242,7 +27242,7 @@
         <v>0.6268</v>
       </c>
       <c r="G334" t="n">
-        <v>0.623522862761923</v>
+        <v>0.62362344292057</v>
       </c>
       <c r="H334" t="n">
         <v>1.59</v>
@@ -27323,7 +27323,7 @@
         <v>0.6268</v>
       </c>
       <c r="G335" t="n">
-        <v>0.623522862761923</v>
+        <v>0.62362344292057</v>
       </c>
       <c r="H335" t="n">
         <v>1.59</v>
@@ -27477,7 +27477,7 @@
         <v>0.6465</v>
       </c>
       <c r="G337" t="n">
-        <v>0.63957148277523</v>
+        <v>0.639652532873292</v>
       </c>
       <c r="H337" t="n">
         <v>1.64</v>
@@ -27554,7 +27554,7 @@
         <v>0.6465</v>
       </c>
       <c r="G338" t="n">
-        <v>0.63957148277523</v>
+        <v>0.639652532873292</v>
       </c>
       <c r="H338" t="n">
         <v>1.64</v>
@@ -28182,7 +28182,7 @@
         <v>0.024</v>
       </c>
       <c r="G346" t="n">
-        <v>0.0248708767652703</v>
+        <v>0.0248716451537625</v>
       </c>
       <c r="H346" t="n">
         <v>0.05</v>
@@ -28263,7 +28263,7 @@
         <v>0.024</v>
       </c>
       <c r="G347" t="n">
-        <v>0.0248708767652703</v>
+        <v>0.0248716451537625</v>
       </c>
       <c r="H347" t="n">
         <v>0.05</v>
@@ -28761,24 +28761,24 @@
         <v>0.01355</v>
       </c>
       <c r="G353" t="n">
-        <v>0.0166990613554148</v>
+        <v>0.0167945591853319</v>
       </c>
       <c r="H353" t="n">
         <v>0.05</v>
       </c>
       <c r="I353" t="n">
-        <v>0.0412</v>
+        <v>0.04126</v>
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
-        <v>0.01898</v>
+        <v>0.01922</v>
       </c>
       <c r="M353" t="n">
-        <v>0.03052</v>
+        <v>0.03088</v>
       </c>
       <c r="N353" t="n">
-        <v>0.03507</v>
+        <v>0.03518</v>
       </c>
       <c r="O353" t="n">
         <v>1851498</v>
@@ -28842,24 +28842,24 @@
         <v>0.01355</v>
       </c>
       <c r="G354" t="n">
-        <v>0.0166990613554148</v>
+        <v>0.0167945591853319</v>
       </c>
       <c r="H354" t="n">
         <v>0.05</v>
       </c>
       <c r="I354" t="n">
-        <v>0.0412</v>
+        <v>0.04126</v>
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
-        <v>0.01898</v>
+        <v>0.01922</v>
       </c>
       <c r="M354" t="n">
-        <v>0.03052</v>
+        <v>0.03088</v>
       </c>
       <c r="N354" t="n">
-        <v>0.03507</v>
+        <v>0.03518</v>
       </c>
       <c r="O354" t="n">
         <v>1851498</v>
@@ -28923,7 +28923,7 @@
         <v>0.63</v>
       </c>
       <c r="G355" t="n">
-        <v>0.631000217876351</v>
+        <v>0.631193578653497</v>
       </c>
       <c r="H355" t="n">
         <v>1.59</v>
@@ -28934,7 +28934,7 @@
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
-        <v>0.04726</v>
+        <v>0.04819</v>
       </c>
       <c r="M355" t="n">
         <v>1.113</v>
@@ -29004,7 +29004,7 @@
         <v>0.63</v>
       </c>
       <c r="G356" t="n">
-        <v>0.631000217876351</v>
+        <v>0.631193578653497</v>
       </c>
       <c r="H356" t="n">
         <v>1.59</v>
@@ -29015,7 +29015,7 @@
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
-        <v>0.04726</v>
+        <v>0.04819</v>
       </c>
       <c r="M356" t="n">
         <v>1.113</v>
@@ -29158,7 +29158,7 @@
         <v>0.648</v>
       </c>
       <c r="G358" t="n">
-        <v>0.648033444452192</v>
+        <v>0.648179828653198</v>
       </c>
       <c r="H358" t="n">
         <v>1.64</v>
@@ -29235,7 +29235,7 @@
         <v>0.648</v>
       </c>
       <c r="G359" t="n">
-        <v>0.648033444452192</v>
+        <v>0.648179828653198</v>
       </c>
       <c r="H359" t="n">
         <v>1.64</v>
@@ -29863,7 +29863,7 @@
         <v>0.027</v>
       </c>
       <c r="G367" t="n">
-        <v>0.0267839424731563</v>
+        <v>0.0267847238851822</v>
       </c>
       <c r="H367" t="n">
         <v>0.061</v>
@@ -29944,7 +29944,7 @@
         <v>0.027</v>
       </c>
       <c r="G368" t="n">
-        <v>0.0267839424731563</v>
+        <v>0.0267847238851822</v>
       </c>
       <c r="H368" t="n">
         <v>0.061</v>
@@ -30442,7 +30442,7 @@
         <v>0.01527</v>
       </c>
       <c r="G374" t="n">
-        <v>0.0223335645519646</v>
+        <v>0.0224167947551977</v>
       </c>
       <c r="H374" t="n">
         <v>0.155</v>
@@ -30456,7 +30456,7 @@
         <v>0.02038</v>
       </c>
       <c r="M374" t="n">
-        <v>0.03259</v>
+        <v>0.03297</v>
       </c>
       <c r="N374" t="n">
         <v>0.04461</v>
@@ -30523,7 +30523,7 @@
         <v>0.01527</v>
       </c>
       <c r="G375" t="n">
-        <v>0.0223335645519646</v>
+        <v>0.0224167947551977</v>
       </c>
       <c r="H375" t="n">
         <v>0.155</v>
@@ -30537,7 +30537,7 @@
         <v>0.02038</v>
       </c>
       <c r="M375" t="n">
-        <v>0.03259</v>
+        <v>0.03297</v>
       </c>
       <c r="N375" t="n">
         <v>0.04461</v>
@@ -30604,7 +30604,7 @@
         <v>0.642</v>
       </c>
       <c r="G376" t="n">
-        <v>0.640492484114804</v>
+        <v>0.640710354730146</v>
       </c>
       <c r="H376" t="n">
         <v>1.59</v>
@@ -30615,7 +30615,7 @@
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
-        <v>0.05576</v>
+        <v>0.05775</v>
       </c>
       <c r="M376" t="n">
         <v>1.1247</v>
@@ -30685,7 +30685,7 @@
         <v>0.642</v>
       </c>
       <c r="G377" t="n">
-        <v>0.640492484114804</v>
+        <v>0.640710354730146</v>
       </c>
       <c r="H377" t="n">
         <v>1.59</v>
@@ -30696,7 +30696,7 @@
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
-        <v>0.05576</v>
+        <v>0.05775</v>
       </c>
       <c r="M377" t="n">
         <v>1.1247</v>
@@ -30839,7 +30839,7 @@
         <v>0.655</v>
       </c>
       <c r="G379" t="n">
-        <v>0.657492324433993</v>
+        <v>0.657610398071763</v>
       </c>
       <c r="H379" t="n">
         <v>1.64</v>
@@ -30850,7 +30850,7 @@
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
-        <v>0.05382</v>
+        <v>0.05478</v>
       </c>
       <c r="M379" t="n">
         <v>1.15615</v>
@@ -30916,7 +30916,7 @@
         <v>0.655</v>
       </c>
       <c r="G380" t="n">
-        <v>0.657492324433993</v>
+        <v>0.657610398071763</v>
       </c>
       <c r="H380" t="n">
         <v>1.64</v>
@@ -30927,7 +30927,7 @@
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
-        <v>0.05382</v>
+        <v>0.05478</v>
       </c>
       <c r="M380" t="n">
         <v>1.15615</v>
@@ -31544,7 +31544,7 @@
         <v>0.028</v>
       </c>
       <c r="G388" t="n">
-        <v>0.0286483492528173</v>
+        <v>0.0286491306648433</v>
       </c>
       <c r="H388" t="n">
         <v>0.061</v>
@@ -31625,7 +31625,7 @@
         <v>0.028</v>
       </c>
       <c r="G389" t="n">
-        <v>0.0286483492528173</v>
+        <v>0.0286491306648433</v>
       </c>
       <c r="H389" t="n">
         <v>0.061</v>
@@ -32120,10 +32120,10 @@
         </is>
       </c>
       <c r="F395" t="n">
-        <v>0.01376</v>
+        <v>0.01383</v>
       </c>
       <c r="G395" t="n">
-        <v>0.019943772465811</v>
+        <v>0.0199831163039937</v>
       </c>
       <c r="H395" t="n">
         <v>0.155</v>
@@ -32134,10 +32134,10 @@
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
-        <v>0.01216</v>
+        <v>0.01224</v>
       </c>
       <c r="M395" t="n">
-        <v>0.03259</v>
+        <v>0.03297</v>
       </c>
       <c r="N395" t="n">
         <v>0.0409</v>
@@ -32201,10 +32201,10 @@
         </is>
       </c>
       <c r="F396" t="n">
-        <v>0.01376</v>
+        <v>0.01383</v>
       </c>
       <c r="G396" t="n">
-        <v>0.019943772465811</v>
+        <v>0.0199831163039937</v>
       </c>
       <c r="H396" t="n">
         <v>0.155</v>
@@ -32215,10 +32215,10 @@
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
-        <v>0.01216</v>
+        <v>0.01224</v>
       </c>
       <c r="M396" t="n">
-        <v>0.03259</v>
+        <v>0.03297</v>
       </c>
       <c r="N396" t="n">
         <v>0.0409</v>
@@ -32285,7 +32285,7 @@
         <v>0.635</v>
       </c>
       <c r="G397" t="n">
-        <v>0.619726462727179</v>
+        <v>0.619888170547914</v>
       </c>
       <c r="H397" t="n">
         <v>1.61</v>
@@ -32366,7 +32366,7 @@
         <v>0.635</v>
       </c>
       <c r="G398" t="n">
-        <v>0.619726462727179</v>
+        <v>0.619888170547914</v>
       </c>
       <c r="H398" t="n">
         <v>1.61</v>
@@ -32520,7 +32520,7 @@
         <v>0.65</v>
       </c>
       <c r="G400" t="n">
-        <v>0.636447340436172</v>
+        <v>0.636534745359265</v>
       </c>
       <c r="H400" t="n">
         <v>1.64</v>
@@ -32597,7 +32597,7 @@
         <v>0.65</v>
       </c>
       <c r="G401" t="n">
-        <v>0.636447340436172</v>
+        <v>0.636534745359265</v>
       </c>
       <c r="H401" t="n">
         <v>1.64</v>
@@ -33225,7 +33225,7 @@
         <v>0.029</v>
       </c>
       <c r="G409" t="n">
-        <v>0.0306144509477325</v>
+        <v>0.0306152323597585</v>
       </c>
       <c r="H409" t="n">
         <v>0.061</v>
@@ -33306,7 +33306,7 @@
         <v>0.029</v>
       </c>
       <c r="G410" t="n">
-        <v>0.0306144509477325</v>
+        <v>0.0306152323597585</v>
       </c>
       <c r="H410" t="n">
         <v>0.061</v>
@@ -33387,10 +33387,10 @@
         <v>120</v>
       </c>
       <c r="G411" t="n">
-        <v>825.239016739259</v>
+        <v>869.403573534611</v>
       </c>
       <c r="H411" t="n">
-        <v>10000</v>
+        <v>12368.810838542</v>
       </c>
       <c r="I411" t="n">
         <v>6100</v>
@@ -33472,10 +33472,10 @@
         <v>120</v>
       </c>
       <c r="G412" t="n">
-        <v>825.239016739259</v>
+        <v>869.403573534611</v>
       </c>
       <c r="H412" t="n">
-        <v>10000</v>
+        <v>12368.810838542</v>
       </c>
       <c r="I412" t="n">
         <v>6100</v>
@@ -33557,10 +33557,10 @@
         <v>120</v>
       </c>
       <c r="G413" t="n">
-        <v>825.239016739259</v>
+        <v>869.403573534611</v>
       </c>
       <c r="H413" t="n">
-        <v>10000</v>
+        <v>12368.810838542</v>
       </c>
       <c r="I413" t="n">
         <v>6100</v>
@@ -33642,10 +33642,10 @@
         <v>120</v>
       </c>
       <c r="G414" t="n">
-        <v>825.239016739259</v>
+        <v>869.403573534611</v>
       </c>
       <c r="H414" t="n">
-        <v>10000</v>
+        <v>12368.810838542</v>
       </c>
       <c r="I414" t="n">
         <v>6100</v>
@@ -33804,7 +33804,7 @@
         <v>0.01495</v>
       </c>
       <c r="G416" t="n">
-        <v>0.0224483681366392</v>
+        <v>0.0224709232393489</v>
       </c>
       <c r="H416" t="n">
         <v>0.155</v>
@@ -33885,7 +33885,7 @@
         <v>0.01495</v>
       </c>
       <c r="G417" t="n">
-        <v>0.0224483681366392</v>
+        <v>0.0224709232393489</v>
       </c>
       <c r="H417" t="n">
         <v>0.155</v>
@@ -33966,7 +33966,7 @@
         <v>0.625</v>
       </c>
       <c r="G418" t="n">
-        <v>0.600336632218704</v>
+        <v>0.600498340039439</v>
       </c>
       <c r="H418" t="n">
         <v>1.61</v>
@@ -34047,7 +34047,7 @@
         <v>0.625</v>
       </c>
       <c r="G419" t="n">
-        <v>0.600336632218704</v>
+        <v>0.600498340039439</v>
       </c>
       <c r="H419" t="n">
         <v>1.61</v>
@@ -34201,7 +34201,7 @@
         <v>0.635</v>
       </c>
       <c r="G421" t="n">
-        <v>0.618091408232782</v>
+        <v>0.618178813155875</v>
       </c>
       <c r="H421" t="n">
         <v>1.628</v>
@@ -34278,7 +34278,7 @@
         <v>0.635</v>
       </c>
       <c r="G422" t="n">
-        <v>0.618091408232782</v>
+        <v>0.618178813155875</v>
       </c>
       <c r="H422" t="n">
         <v>1.628</v>
@@ -34637,6 +34637,1687 @@
         </is>
       </c>
     </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F427" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.3816</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I427" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="M427" t="n">
+        <v>0.4465</v>
+      </c>
+      <c r="N427" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O427" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="P427" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="Q427" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R427" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S427" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T427" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="U427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F428" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="G428" t="n">
+        <v>51.8087826755658</v>
+      </c>
+      <c r="H428" t="n">
+        <v>195</v>
+      </c>
+      <c r="I428" t="n">
+        <v>157.75</v>
+      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="M428" t="n">
+        <v>116.1</v>
+      </c>
+      <c r="N428" t="n">
+        <v>148.8</v>
+      </c>
+      <c r="O428" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="P428" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="Q428" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R428" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S428" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T428" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="U428" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 4)</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F429" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G429" t="n">
+        <v>1.43090384615385</v>
+      </c>
+      <c r="H429" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I429" t="n">
+        <v>3.388</v>
+      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
+      <c r="L429" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M429" t="n">
+        <v>2.6296</v>
+      </c>
+      <c r="N429" t="n">
+        <v>2.9632</v>
+      </c>
+      <c r="O429" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="P429" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="Q429" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R429" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S429" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T429" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="U429" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F430" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.0313948933767077</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="I430" t="n">
+        <v>0.0542</v>
+      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
+      <c r="L430" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="M430" t="n">
+        <v>0.04347</v>
+      </c>
+      <c r="N430" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O430" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="P430" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="Q430" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R430" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S430" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T430" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="U430" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F431" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.0313948933767077</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="I431" t="n">
+        <v>0.0542</v>
+      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="M431" t="n">
+        <v>0.04347</v>
+      </c>
+      <c r="N431" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O431" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="P431" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="Q431" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R431" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S431" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T431" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="U431" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F432" t="n">
+        <v>120</v>
+      </c>
+      <c r="G432" t="n">
+        <v>688.047641331221</v>
+      </c>
+      <c r="H432" t="n">
+        <v>12368.810838542</v>
+      </c>
+      <c r="I432" t="n">
+        <v>3704.7</v>
+      </c>
+      <c r="J432" t="n">
+        <v>15.2542372881356</v>
+      </c>
+      <c r="K432" t="n">
+        <v>28.8135593220339</v>
+      </c>
+      <c r="L432" t="n">
+        <v>134</v>
+      </c>
+      <c r="M432" t="n">
+        <v>410.32</v>
+      </c>
+      <c r="N432" t="n">
+        <v>2385.1</v>
+      </c>
+      <c r="O432" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="P432" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="Q432" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R432" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S432" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T432" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="U432" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F433" t="n">
+        <v>120</v>
+      </c>
+      <c r="G433" t="n">
+        <v>688.047641331221</v>
+      </c>
+      <c r="H433" t="n">
+        <v>12368.810838542</v>
+      </c>
+      <c r="I433" t="n">
+        <v>3704.7</v>
+      </c>
+      <c r="J433" t="n">
+        <v>15.2542372881356</v>
+      </c>
+      <c r="K433" t="n">
+        <v>28.8135593220339</v>
+      </c>
+      <c r="L433" t="n">
+        <v>134</v>
+      </c>
+      <c r="M433" t="n">
+        <v>410.32</v>
+      </c>
+      <c r="N433" t="n">
+        <v>2385.1</v>
+      </c>
+      <c r="O433" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="P433" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="Q433" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R433" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S433" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T433" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="U433" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F434" t="n">
+        <v>120</v>
+      </c>
+      <c r="G434" t="n">
+        <v>688.047641331221</v>
+      </c>
+      <c r="H434" t="n">
+        <v>12368.810838542</v>
+      </c>
+      <c r="I434" t="n">
+        <v>3704.7</v>
+      </c>
+      <c r="J434" t="n">
+        <v>15.2542372881356</v>
+      </c>
+      <c r="K434" t="n">
+        <v>28.8135593220339</v>
+      </c>
+      <c r="L434" t="n">
+        <v>134</v>
+      </c>
+      <c r="M434" t="n">
+        <v>410.32</v>
+      </c>
+      <c r="N434" t="n">
+        <v>2385.1</v>
+      </c>
+      <c r="O434" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="P434" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="Q434" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R434" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S434" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T434" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="U434" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F435" t="n">
+        <v>120</v>
+      </c>
+      <c r="G435" t="n">
+        <v>688.047641331221</v>
+      </c>
+      <c r="H435" t="n">
+        <v>12368.810838542</v>
+      </c>
+      <c r="I435" t="n">
+        <v>3704.7</v>
+      </c>
+      <c r="J435" t="n">
+        <v>15.2542372881356</v>
+      </c>
+      <c r="K435" t="n">
+        <v>28.8135593220339</v>
+      </c>
+      <c r="L435" t="n">
+        <v>134</v>
+      </c>
+      <c r="M435" t="n">
+        <v>410.32</v>
+      </c>
+      <c r="N435" t="n">
+        <v>2385.1</v>
+      </c>
+      <c r="O435" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="P435" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="Q435" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R435" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S435" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T435" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="U435" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F436" t="n">
+        <v>100</v>
+      </c>
+      <c r="G436" t="n">
+        <v>100.266</v>
+      </c>
+      <c r="H436" t="n">
+        <v>107</v>
+      </c>
+      <c r="I436" t="n">
+        <v>107</v>
+      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="M436" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="N436" t="n">
+        <v>107</v>
+      </c>
+      <c r="O436" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="P436" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="Q436" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R436" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S436" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T436" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="U436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F437" t="n">
+        <v>0.01427</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.0212147604990765</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I437" t="n">
+        <v>0.0654</v>
+      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="n">
+        <v>0.01158</v>
+      </c>
+      <c r="M437" t="n">
+        <v>0.03963</v>
+      </c>
+      <c r="N437" t="n">
+        <v>0.05068</v>
+      </c>
+      <c r="O437" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="P437" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="Q437" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R437" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S437" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T437" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="U437" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F438" t="n">
+        <v>0.01427</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.0212147604990765</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I438" t="n">
+        <v>0.0654</v>
+      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
+      <c r="L438" t="n">
+        <v>0.01158</v>
+      </c>
+      <c r="M438" t="n">
+        <v>0.03963</v>
+      </c>
+      <c r="N438" t="n">
+        <v>0.05068</v>
+      </c>
+      <c r="O438" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="P438" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="Q438" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R438" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S438" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T438" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="U438" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F439" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.653210204446219</v>
+      </c>
+      <c r="H439" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I439" t="n">
+        <v>1.4225</v>
+      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="n">
+        <v>0.2695</v>
+      </c>
+      <c r="M439" t="n">
+        <v>1.1247</v>
+      </c>
+      <c r="N439" t="n">
+        <v>1.3246</v>
+      </c>
+      <c r="O439" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="P439" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="Q439" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R439" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S439" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T439" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="U439" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F440" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.653210204446219</v>
+      </c>
+      <c r="H440" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I440" t="n">
+        <v>1.4225</v>
+      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="n">
+        <v>0.2695</v>
+      </c>
+      <c r="M440" t="n">
+        <v>1.1247</v>
+      </c>
+      <c r="N440" t="n">
+        <v>1.3246</v>
+      </c>
+      <c r="O440" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="P440" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="Q440" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R440" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S440" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T440" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="U440" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F441" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="G441" t="n">
+        <v>5.5538</v>
+      </c>
+      <c r="H441" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="I441" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="n">
+        <v>5.389</v>
+      </c>
+      <c r="M441" t="n">
+        <v>6.41085</v>
+      </c>
+      <c r="N441" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="O441" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="P441" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="Q441" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R441" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S441" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T441" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="U441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr"/>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F442" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.672314406376214</v>
+      </c>
+      <c r="H442" t="n">
+        <v>1.727</v>
+      </c>
+      <c r="I442" t="n">
+        <v>1.44775</v>
+      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
+      <c r="L442" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="M442" t="n">
+        <v>1.16675</v>
+      </c>
+      <c r="N442" t="n">
+        <v>1.35078</v>
+      </c>
+      <c r="O442" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="P442" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="Q442" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R442" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S442" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T442" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="U442" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr"/>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F443" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.672314406376214</v>
+      </c>
+      <c r="H443" t="n">
+        <v>1.727</v>
+      </c>
+      <c r="I443" t="n">
+        <v>1.44775</v>
+      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
+      <c r="L443" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="M443" t="n">
+        <v>1.16675</v>
+      </c>
+      <c r="N443" t="n">
+        <v>1.35078</v>
+      </c>
+      <c r="O443" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="P443" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="Q443" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R443" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S443" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T443" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="U443" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr"/>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F444" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.879661016949153</v>
+      </c>
+      <c r="H444" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="I444" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
+      <c r="L444" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="M444" t="n">
+        <v>1.3864</v>
+      </c>
+      <c r="N444" t="n">
+        <v>1.6078</v>
+      </c>
+      <c r="O444" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="P444" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="Q444" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R444" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S444" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T444" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="U444" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr"/>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F445" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.879661016949153</v>
+      </c>
+      <c r="H445" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="I445" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
+      <c r="L445" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="M445" t="n">
+        <v>1.3864</v>
+      </c>
+      <c r="N445" t="n">
+        <v>1.6078</v>
+      </c>
+      <c r="O445" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="P445" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="Q445" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R445" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S445" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T445" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="U445" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr"/>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F446" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.0884067796610169</v>
+      </c>
+      <c r="H446" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I446" t="n">
+        <v>0.1707</v>
+      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="n">
+        <v>0.0445</v>
+      </c>
+      <c r="M446" t="n">
+        <v>0.07194</v>
+      </c>
+      <c r="N446" t="n">
+        <v>0.15314</v>
+      </c>
+      <c r="O446" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="P446" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="Q446" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R446" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S446" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T446" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="U446" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr"/>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F447" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.0884067796610169</v>
+      </c>
+      <c r="H447" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I447" t="n">
+        <v>0.1707</v>
+      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
+      <c r="L447" t="n">
+        <v>0.0445</v>
+      </c>
+      <c r="M447" t="n">
+        <v>0.07194</v>
+      </c>
+      <c r="N447" t="n">
+        <v>0.15314</v>
+      </c>
+      <c r="O447" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="P447" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="Q447" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R447" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S447" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T447" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="U447" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/ManawatuatHopelands_65cebb97ae.xlsx
+++ b/state_results/Rivers/ManawatuatHopelands_65cebb97ae.xlsx
@@ -10259,7 +10259,7 @@
         <v>0.93</v>
       </c>
       <c r="G123" t="n">
-        <v>1.40315905582845</v>
+        <v>1.39944649766182</v>
       </c>
       <c r="H123" t="n">
         <v>7.9</v>
@@ -11397,13 +11397,13 @@
         <v>1.29</v>
       </c>
       <c r="G137" t="n">
-        <v>1.56441340338102</v>
+        <v>1.56022690161865</v>
       </c>
       <c r="H137" t="n">
         <v>7.9</v>
       </c>
       <c r="I137" t="n">
-        <v>6.61411</v>
+        <v>6.5846</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -12535,13 +12535,13 @@
         <v>1.52</v>
       </c>
       <c r="G151" t="n">
-        <v>2.10965548303078</v>
+        <v>2.05399999774181</v>
       </c>
       <c r="H151" t="n">
         <v>7.9</v>
       </c>
       <c r="I151" t="n">
-        <v>6.59274</v>
+        <v>6.57307</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -12549,10 +12549,10 @@
         <v>2.25</v>
       </c>
       <c r="M151" t="n">
-        <v>4.374</v>
+        <v>4.01038</v>
       </c>
       <c r="N151" t="n">
-        <v>6.48194</v>
+        <v>6.29853</v>
       </c>
       <c r="O151" t="n">
         <v>1851498</v>
@@ -13827,7 +13827,7 @@
         <v>1.675</v>
       </c>
       <c r="G167" t="n">
-        <v>2.21746926370955</v>
+        <v>2.16403999783214</v>
       </c>
       <c r="H167" t="n">
         <v>7.9</v>
@@ -13841,10 +13841,10 @@
         <v>2.2</v>
       </c>
       <c r="M167" t="n">
-        <v>4.5</v>
+        <v>4.03053</v>
       </c>
       <c r="N167" t="n">
-        <v>6.45302</v>
+        <v>6.2504</v>
       </c>
       <c r="O167" t="n">
         <v>1851498</v>
@@ -15119,13 +15119,13 @@
         <v>2</v>
       </c>
       <c r="G183" t="n">
-        <v>2.36823413227493</v>
+        <v>2.31371447321635</v>
       </c>
       <c r="H183" t="n">
         <v>7.9</v>
       </c>
       <c r="I183" t="n">
-        <v>6.57137</v>
+        <v>6.56153</v>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
@@ -15133,10 +15133,10 @@
         <v>2.4</v>
       </c>
       <c r="M183" t="n">
-        <v>4.602</v>
+        <v>4.11034</v>
       </c>
       <c r="N183" t="n">
-        <v>6.46748</v>
+        <v>6.27447</v>
       </c>
       <c r="O183" t="n">
         <v>1851498</v>
@@ -16565,13 +16565,13 @@
         <v>1.25</v>
       </c>
       <c r="G201" t="n">
-        <v>1.89766085045127</v>
+        <v>1.84816689623049</v>
       </c>
       <c r="H201" t="n">
-        <v>6.54339941702058</v>
+        <v>6.40080995661562</v>
       </c>
       <c r="I201" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
         <v>2.8</v>
       </c>
       <c r="N201" t="n">
-        <v>5.55</v>
+        <v>4.8</v>
       </c>
       <c r="O201" t="n">
         <v>1851498</v>
@@ -18092,13 +18092,13 @@
         <v>1.25</v>
       </c>
       <c r="G220" t="n">
-        <v>1.84130433076007</v>
+        <v>1.7971133002058</v>
       </c>
       <c r="H220" t="n">
-        <v>6.54339941702058</v>
+        <v>6.40080995661562</v>
       </c>
       <c r="I220" t="n">
-        <v>6.07</v>
+        <v>5.73</v>
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
@@ -18109,7 +18109,7 @@
         <v>2.847</v>
       </c>
       <c r="N220" t="n">
-        <v>5.118</v>
+        <v>4.512</v>
       </c>
       <c r="O220" t="n">
         <v>1851498</v>
@@ -33387,10 +33387,10 @@
         <v>120</v>
       </c>
       <c r="G411" t="n">
-        <v>869.403573534611</v>
+        <v>851.759705524442</v>
       </c>
       <c r="H411" t="n">
-        <v>12368.810838542</v>
+        <v>11327.8226259421</v>
       </c>
       <c r="I411" t="n">
         <v>6100</v>
@@ -33472,10 +33472,10 @@
         <v>120</v>
       </c>
       <c r="G412" t="n">
-        <v>869.403573534611</v>
+        <v>851.759705524442</v>
       </c>
       <c r="H412" t="n">
-        <v>12368.810838542</v>
+        <v>11327.8226259421</v>
       </c>
       <c r="I412" t="n">
         <v>6100</v>
@@ -33557,10 +33557,10 @@
         <v>120</v>
       </c>
       <c r="G413" t="n">
-        <v>869.403573534611</v>
+        <v>851.759705524442</v>
       </c>
       <c r="H413" t="n">
-        <v>12368.810838542</v>
+        <v>11327.8226259421</v>
       </c>
       <c r="I413" t="n">
         <v>6100</v>
@@ -33642,10 +33642,10 @@
         <v>120</v>
       </c>
       <c r="G414" t="n">
-        <v>869.403573534611</v>
+        <v>851.759705524442</v>
       </c>
       <c r="H414" t="n">
-        <v>12368.810838542</v>
+        <v>11327.8226259421</v>
       </c>
       <c r="I414" t="n">
         <v>6100</v>
@@ -35068,10 +35068,10 @@
         <v>120</v>
       </c>
       <c r="G432" t="n">
-        <v>688.047641331221</v>
+        <v>670.403773321052</v>
       </c>
       <c r="H432" t="n">
-        <v>12368.810838542</v>
+        <v>11327.8226259421</v>
       </c>
       <c r="I432" t="n">
         <v>3704.7</v>
@@ -35153,10 +35153,10 @@
         <v>120</v>
       </c>
       <c r="G433" t="n">
-        <v>688.047641331221</v>
+        <v>670.403773321052</v>
       </c>
       <c r="H433" t="n">
-        <v>12368.810838542</v>
+        <v>11327.8226259421</v>
       </c>
       <c r="I433" t="n">
         <v>3704.7</v>
@@ -35238,10 +35238,10 @@
         <v>120</v>
       </c>
       <c r="G434" t="n">
-        <v>688.047641331221</v>
+        <v>670.403773321052</v>
       </c>
       <c r="H434" t="n">
-        <v>12368.810838542</v>
+        <v>11327.8226259421</v>
       </c>
       <c r="I434" t="n">
         <v>3704.7</v>
@@ -35323,10 +35323,10 @@
         <v>120</v>
       </c>
       <c r="G435" t="n">
-        <v>688.047641331221</v>
+        <v>670.403773321052</v>
       </c>
       <c r="H435" t="n">
-        <v>12368.810838542</v>
+        <v>11327.8226259421</v>
       </c>
       <c r="I435" t="n">
         <v>3704.7</v>
